--- a/info/SCRUM_board.xlsx
+++ b/info/SCRUM_board.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristian\Documents\GitHub\CMPS115-Project\info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="257" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="257"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -29,72 +33,54 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Results (Page)</t>
-  </si>
-  <si>
-    <t>Divide Function creation (Chris)</t>
-  </si>
-  <si>
-    <t>Learning how to implement Facebook app</t>
-  </si>
-  <si>
-    <t>Notification System (Text, email, etc.)</t>
-  </si>
-  <si>
-    <t>Learn Javascript code for Venmo/Facebook (Alex)</t>
-  </si>
-  <si>
-    <t>Learning how to implement Venmo payment</t>
-  </si>
-  <si>
-    <t>Learn to integrate db</t>
-  </si>
-  <si>
-    <t>User Form (basic info) (Delan)</t>
-  </si>
-  <si>
-    <t>Basic Skeleton </t>
-  </si>
-  <si>
-    <t>Upgrading HTML skeleton(Zeno)</t>
-  </si>
-  <si>
-    <t>Learn to integrate Javascript to HTML</t>
+    <t>Have an aesthetically pleasing way of displaying costs</t>
+  </si>
+  <si>
+    <t>Find a way to upload pictures to the website</t>
+  </si>
+  <si>
+    <t>Make the picture accessible to everyone who is splitting payment</t>
+  </si>
+  <si>
+    <t>Come up with the best method to store user information</t>
+  </si>
+  <si>
+    <t>Write a separate method to divide costs by percentage</t>
+  </si>
+  <si>
+    <t>Figure out how to send a text or email notifications over web apps</t>
+  </si>
+  <si>
+    <t>Write a function that divides costs</t>
+  </si>
+  <si>
+    <t>Integrate the Facebook JavaScript sdk</t>
+  </si>
+  <si>
+    <t>Test the website to find the best location for Facebook integration</t>
+  </si>
+  <si>
+    <t>Begin implementing whatever we come up with</t>
+  </si>
+  <si>
+    <t>Implement notification functionality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="true"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
@@ -118,94 +104,81 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -264,38 +237,312 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.3163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375"/>
+    <col min="3" max="3" width="34.28515625"/>
+    <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -306,159 +553,159 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="4">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="5">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -467,10 +714,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/info/SCRUM_board.xlsx
+++ b/info/SCRUM_board.xlsx
@@ -158,9 +158,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -172,6 +169,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,7 +524,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -536,179 +536,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/info/SCRUM_board.xlsx
+++ b/info/SCRUM_board.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>SCRUM Board</t>
   </si>
@@ -33,37 +33,31 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Have an aesthetically pleasing way of displaying costs</t>
-  </si>
-  <si>
-    <t>Find a way to upload pictures to the website</t>
-  </si>
-  <si>
-    <t>Make the picture accessible to everyone who is splitting payment</t>
-  </si>
-  <si>
-    <t>Come up with the best method to store user information</t>
-  </si>
-  <si>
-    <t>Write a separate method to divide costs by percentage</t>
-  </si>
-  <si>
-    <t>Figure out how to send a text or email notifications over web apps</t>
-  </si>
-  <si>
-    <t>Write a function that divides costs</t>
-  </si>
-  <si>
-    <t>Integrate the Facebook JavaScript sdk</t>
-  </si>
-  <si>
-    <t>Test the website to find the best location for Facebook integration</t>
-  </si>
-  <si>
-    <t>Begin implementing whatever we come up with</t>
-  </si>
-  <si>
-    <t>Implement notification functionality</t>
+    <t xml:space="preserve">Generate a Venmo URL that can be used to charge everyone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the amount of people to generate an editable form </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a stopgap, use a student website that we are all provided with </t>
+  </si>
+  <si>
+    <t>Update the cost divide function to calculate a variable cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate a Venmo URL for each user with variable cost </t>
+  </si>
+  <si>
+    <t>Make sure appropriate values are entered in the initial form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a custom split, make sure the custom split adds up to the total amount </t>
+  </si>
+  <si>
+    <t>Somehow attempt to verity that the Venmo usernames are legitimate</t>
+  </si>
+  <si>
+    <t>Make the editable form of Venmo usernames also have a field for the %</t>
   </si>
 </sst>
 </file>
@@ -156,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,6 +167,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,12 +519,12 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="1" max="1" width="61.42578125" customWidth="1"/>
     <col min="2" max="2" width="27.7109375"/>
     <col min="3" max="3" width="34.28515625"/>
     <col min="4" max="1025" width="11.5703125"/>
@@ -554,71 +549,75 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
@@ -705,7 +704,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/info/SCRUM_board.xlsx
+++ b/info/SCRUM_board.xlsx
@@ -164,10 +164,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -531,11 +531,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -549,63 +549,58 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4"/>

--- a/info/SCRUM_board.xlsx
+++ b/info/SCRUM_board.xlsx
@@ -519,7 +519,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -579,11 +579,10 @@
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
